--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/35.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/35.xlsx
@@ -479,13 +479,13 @@
         <v>-0.3415413482966655</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.948092300104326</v>
+        <v>-1.945451073107872</v>
       </c>
       <c r="F2" t="n">
-        <v>0.132758748746161</v>
+        <v>0.1313717030597978</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1480377000973999</v>
+        <v>-0.1475485839869455</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.3589489048127844</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.091073349598924</v>
+        <v>-2.087823282548561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06944668338008712</v>
+        <v>0.06831806620581471</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1202048033404074</v>
+        <v>-0.1199127937222257</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3954893989143608</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.304222850294503</v>
+        <v>-2.300677853529776</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0569194707600905</v>
+        <v>0.05549884396763633</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1437159577483102</v>
+        <v>-0.143383066783583</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.4392583524699588</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.474184858485048</v>
+        <v>-2.470698993668003</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00156904763374172</v>
+        <v>0.0007149195005601316</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.169001070586667</v>
+        <v>-0.1686988406318489</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.4809888724350208</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.545059972962029</v>
+        <v>-2.540573245178666</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.07410086477378341</v>
+        <v>-0.07411984539896523</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1716612782083027</v>
+        <v>-0.1717167600357572</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.5125662567570479</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.343139702133629</v>
+        <v>-2.339197572288175</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1277532519704054</v>
+        <v>-0.126655295806042</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1473178963885819</v>
+        <v>-0.1472346736474001</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.5276402634856978</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.036279204795211</v>
+        <v>-2.032170629467394</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1791907462131188</v>
+        <v>-0.1774868700910284</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1157750174325904</v>
+        <v>-0.1159633636363176</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.5152304961996843</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.683317688986351</v>
+        <v>-1.678994486589171</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1086923241435923</v>
+        <v>-0.1071344528305927</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07321899572687456</v>
+        <v>-0.07327301750623819</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.4591719728428303</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.253069257509285</v>
+        <v>-1.248861398911286</v>
       </c>
       <c r="F10" t="n">
-        <v>0.007837034088012765</v>
+        <v>0.008381632025921709</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01042816752925506</v>
+        <v>-0.01061797378107319</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.3471132624507422</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.9420717139052777</v>
+        <v>-0.9371192307809153</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07462547395854029</v>
+        <v>0.07404145472217681</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01617345676698079</v>
+        <v>-0.01626251970052622</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1773389542539347</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5796527365875568</v>
+        <v>-0.5737833432621038</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1477811835535206</v>
+        <v>0.1465824840708846</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02288821793706989</v>
+        <v>-0.02226477740225188</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.03473848663910765</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1386320702957661</v>
+        <v>-0.131517255948768</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01165067970146629</v>
+        <v>0.01075859031792107</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04592968877982072</v>
+        <v>0.04639982426509332</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2602713981763129</v>
       </c>
       <c r="E14" t="n">
-        <v>0.312952043933749</v>
+        <v>0.3204698315538379</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1620585419143962</v>
+        <v>-0.1625710187943051</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1127750705258937</v>
+        <v>0.113762063035348</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4700458744957387</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8575178607846937</v>
+        <v>0.8650371084528735</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1780431484136646</v>
+        <v>-0.1804288669942094</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1945801050114172</v>
+        <v>0.1957101822337805</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6551737717057157</v>
       </c>
       <c r="E16" t="n">
-        <v>1.558692816010778</v>
+        <v>1.565194410159594</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5122233356051203</v>
+        <v>-0.5148076207260287</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2598296541941269</v>
+        <v>0.2608794287714903</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.836670760841477</v>
       </c>
       <c r="E17" t="n">
-        <v>2.265859808601952</v>
+        <v>2.271139342498678</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6777621281042577</v>
+        <v>-0.6805771008235296</v>
       </c>
       <c r="G17" t="n">
-        <v>0.369690972794552</v>
+        <v>0.3711174397793698</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.034091218577181</v>
       </c>
       <c r="E18" t="n">
-        <v>3.031571809542382</v>
+        <v>3.0351664479422</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9562312602909102</v>
+        <v>-0.9591206954628185</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4804356204899768</v>
+        <v>0.4821789179105218</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.24600166804658</v>
       </c>
       <c r="E19" t="n">
-        <v>3.663022168187122</v>
+        <v>3.665594772923303</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.196213524801209</v>
+        <v>-1.19891461376939</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6001464235116719</v>
+        <v>0.601807958239126</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.458243618444312</v>
       </c>
       <c r="E20" t="n">
-        <v>4.328040492489944</v>
+        <v>4.328309141338671</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.456683184123139</v>
+        <v>-1.459413474053139</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7110151752948239</v>
+        <v>0.7127847535810052</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.658453163520993</v>
       </c>
       <c r="E21" t="n">
-        <v>4.853321994156166</v>
+        <v>4.852431364820712</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.730705009824884</v>
+        <v>-1.732319823013429</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8590917926266933</v>
+        <v>0.8607007656228747</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.843696758572037</v>
       </c>
       <c r="E22" t="n">
-        <v>5.374416077897663</v>
+        <v>5.371566064024209</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.950346614356689</v>
+        <v>-1.952130793123779</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9453514338375792</v>
+        <v>0.9471210121237605</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.011061739118904</v>
       </c>
       <c r="E23" t="n">
-        <v>5.723496055856842</v>
+        <v>5.71891442494757</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.201477806089167</v>
+        <v>-2.20269621622103</v>
       </c>
       <c r="G23" t="n">
-        <v>1.054544050412368</v>
+        <v>1.056449413171004</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.153109675134238</v>
       </c>
       <c r="E24" t="n">
-        <v>6.149247539213909</v>
+        <v>6.142813107277274</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.432775704554741</v>
+        <v>-2.433092534990468</v>
       </c>
       <c r="G24" t="n">
-        <v>1.175906167824881</v>
+        <v>1.17714136850979</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.263512442501469</v>
       </c>
       <c r="E25" t="n">
-        <v>6.442394534858467</v>
+        <v>6.434208045212742</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.556314023646753</v>
+        <v>-2.557225823679526</v>
       </c>
       <c r="G25" t="n">
-        <v>1.249888264639316</v>
+        <v>1.251251949556224</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.338733551431218</v>
       </c>
       <c r="E26" t="n">
-        <v>6.609816789394876</v>
+        <v>6.599559951556243</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.604650375744377</v>
+        <v>-2.605881196285013</v>
       </c>
       <c r="G26" t="n">
-        <v>1.314569855114662</v>
+        <v>1.315673651471389</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.378292634379676</v>
       </c>
       <c r="E27" t="n">
-        <v>6.715398707040848</v>
+        <v>6.704569530350578</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.69027927617999</v>
+        <v>-2.690674949212626</v>
       </c>
       <c r="G27" t="n">
-        <v>1.324431019920659</v>
+        <v>1.325629719403295</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.383710581635905</v>
       </c>
       <c r="E28" t="n">
-        <v>6.90201037363607</v>
+        <v>6.889208671974983</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.71663022412471</v>
+        <v>-2.71759385586471</v>
       </c>
       <c r="G28" t="n">
-        <v>1.364503499823739</v>
+        <v>1.365623356709466</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.354499673950769</v>
       </c>
       <c r="E29" t="n">
-        <v>6.866674289739898</v>
+        <v>6.853354271006538</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.738329458851795</v>
+        <v>-2.738725131884431</v>
       </c>
       <c r="G29" t="n">
-        <v>1.350395055121289</v>
+        <v>1.351637556046652</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.294041698340333</v>
       </c>
       <c r="E30" t="n">
-        <v>6.803041013793824</v>
+        <v>6.788955929860828</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.63949004328964</v>
+        <v>-2.640552958299822</v>
       </c>
       <c r="G30" t="n">
-        <v>1.333578221210202</v>
+        <v>1.334914165213384</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.205933938489986</v>
       </c>
       <c r="E31" t="n">
-        <v>6.829974520926817</v>
+        <v>6.81415197976564</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.539339504541849</v>
+        <v>-2.540762321406439</v>
       </c>
       <c r="G31" t="n">
-        <v>1.295393583488667</v>
+        <v>1.296438977921758</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.098902179065643</v>
       </c>
       <c r="E32" t="n">
-        <v>6.791230684786464</v>
+        <v>6.774060519237378</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.404803373205067</v>
+        <v>-2.406524769904248</v>
       </c>
       <c r="G32" t="n">
-        <v>1.249523252616588</v>
+        <v>1.249993388101861</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.983129581351536</v>
       </c>
       <c r="E33" t="n">
-        <v>6.625629110219418</v>
+        <v>6.607912886684331</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.370951428193303</v>
+        <v>-2.372320953302575</v>
       </c>
       <c r="G33" t="n">
-        <v>1.191427939079331</v>
+        <v>1.192111241585877</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.864393114445273</v>
       </c>
       <c r="E34" t="n">
-        <v>6.326652142547862</v>
+        <v>6.310524451335684</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.333095301292222</v>
+        <v>-2.334884590227631</v>
       </c>
       <c r="G34" t="n">
-        <v>1.14163299893889</v>
+        <v>1.14205057269289</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.748109566538014</v>
       </c>
       <c r="E35" t="n">
-        <v>6.131668560199368</v>
+        <v>6.115143735906464</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.29612907370255</v>
+        <v>-2.29705255412005</v>
       </c>
       <c r="G35" t="n">
-        <v>1.082042596156543</v>
+        <v>1.082486450776179</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.635952011543395</v>
       </c>
       <c r="E36" t="n">
-        <v>5.934845317256331</v>
+        <v>5.91832779320388</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.231459163611931</v>
+        <v>-2.232900231077658</v>
       </c>
       <c r="G36" t="n">
-        <v>1.061236910861094</v>
+        <v>1.060880659126912</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.527613440083494</v>
       </c>
       <c r="E37" t="n">
-        <v>5.627881886527503</v>
+        <v>5.612192209742599</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.187570848023261</v>
+        <v>-2.188283351491625</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9555279690312128</v>
+        <v>0.9555484097044855</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.424185205546941</v>
       </c>
       <c r="E38" t="n">
-        <v>5.321896688019586</v>
+        <v>5.306595384026862</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.141247172218955</v>
+        <v>-2.142168462564319</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8820466687119598</v>
+        <v>0.882267135973687</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.323702412048383</v>
       </c>
       <c r="E39" t="n">
-        <v>5.007941086983397</v>
+        <v>4.992352153516765</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.083000013680244</v>
+        <v>-2.083849031645107</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8010738616382543</v>
+        <v>0.801558597604436</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.226228298830087</v>
       </c>
       <c r="E40" t="n">
-        <v>4.717467439393293</v>
+        <v>4.702224537324207</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.104322555999875</v>
+        <v>-2.10454813342992</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7612729506800832</v>
+        <v>0.7612846310648105</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.130376198067278</v>
       </c>
       <c r="E41" t="n">
-        <v>4.395442152558653</v>
+        <v>4.380942414967839</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.998428918086494</v>
+        <v>-1.998526011284539</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6815353442912864</v>
+        <v>0.6817893926591045</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.035897754054139</v>
       </c>
       <c r="E42" t="n">
-        <v>4.015907031471209</v>
+        <v>4.002495029708122</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.907854834766973</v>
+        <v>-1.908135164000427</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6025628031021258</v>
+        <v>0.6027745100753076</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.9446285296024778</v>
       </c>
       <c r="E43" t="n">
-        <v>3.713720878095836</v>
+        <v>3.701303169082657</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.855221561137805</v>
+        <v>-1.855461009024714</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5622567155045003</v>
+        <v>0.5624669624295912</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.8561934563250678</v>
       </c>
       <c r="E44" t="n">
-        <v>3.410817841107826</v>
+        <v>3.399465967201011</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.760154179818513</v>
+        <v>-1.760253463088694</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5139028428297859</v>
+        <v>0.5136648549909678</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.7719391235643578</v>
       </c>
       <c r="E45" t="n">
-        <v>3.127797739021811</v>
+        <v>3.116753935262178</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.67762788157608</v>
+        <v>-1.677816227779807</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4184580390789934</v>
+        <v>0.4186361649460843</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6927881730854921</v>
       </c>
       <c r="E46" t="n">
-        <v>2.832313206383709</v>
+        <v>2.821954165178711</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.599613131934556</v>
+        <v>-1.599818998715374</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3805668710237309</v>
+        <v>0.3807844181892763</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.6189225134485423</v>
       </c>
       <c r="E47" t="n">
-        <v>2.501159698884707</v>
+        <v>2.491488340330528</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.477297603118679</v>
+        <v>-1.477913743413043</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3169292149333843</v>
+        <v>0.3171599025317479</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.5511661759825131</v>
       </c>
       <c r="E48" t="n">
-        <v>2.206765822170513</v>
+        <v>2.198398286561515</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.372693917693617</v>
+        <v>-1.373593307317616</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2893795675060281</v>
+        <v>0.2894058483716644</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4894803054494655</v>
       </c>
       <c r="E49" t="n">
-        <v>1.924642189612316</v>
+        <v>1.917089360838045</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.285279378442822</v>
+        <v>-1.28683432965964</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2353811489118608</v>
+        <v>0.2356454176163152</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.4334980267765184</v>
       </c>
       <c r="E50" t="n">
-        <v>1.790709058137079</v>
+        <v>1.783163529603263</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.163061672849036</v>
+        <v>-1.165228384215945</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1975644433092345</v>
+        <v>0.1977192084068709</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3825992710988947</v>
       </c>
       <c r="E51" t="n">
-        <v>1.513542288847518</v>
+        <v>1.506785186282792</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.086739118944875</v>
+        <v>-1.089037234639965</v>
       </c>
       <c r="G51" t="n">
-        <v>0.16701293700697</v>
+        <v>0.1669413946505155</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3359738893727237</v>
       </c>
       <c r="E52" t="n">
-        <v>1.353588180296106</v>
+        <v>1.347692506105017</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.004169019259715</v>
+        <v>-1.006655481158533</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1441193829415216</v>
+        <v>0.1441208429896125</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.293249795516813</v>
       </c>
       <c r="E53" t="n">
-        <v>1.109922214452444</v>
+        <v>1.105038353588355</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9302730652826444</v>
+        <v>-0.9329332729042801</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1007194534392605</v>
+        <v>0.1006931725736242</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2537552555077742</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9645393858483013</v>
+        <v>0.9600249171512116</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9378594751630061</v>
+        <v>-0.9403984987930962</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05004118420381962</v>
+        <v>0.04989371934663783</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2172615756189475</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8028595004534357</v>
+        <v>0.7985289978158004</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8914255657278367</v>
+        <v>-0.893850705606836</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02181407446228174</v>
+        <v>0.02174107205773631</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1836747899788835</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6551624956252026</v>
+        <v>0.6516919613131126</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.84175034953085</v>
+        <v>-0.8447332277805765</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01555776839273797</v>
+        <v>0.01536504204473802</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1519816438888889</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5114339015080593</v>
+        <v>0.5080378296486058</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8088846670044952</v>
+        <v>-0.8122719785754033</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.01215686446889096</v>
+        <v>-0.01207072163152734</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1213720864679596</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4007753966499982</v>
+        <v>0.3977633174384535</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.8035700919535875</v>
+        <v>-0.8068683405909503</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.02791078336979582</v>
+        <v>-0.02796918529343216</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.09074482579581612</v>
       </c>
       <c r="E59" t="n">
-        <v>0.254823149290401</v>
+        <v>0.2519103533490381</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7387395765729686</v>
+        <v>-0.7420042441042405</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09354870534468729</v>
+        <v>-0.09298366673350562</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.05914651756879051</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1940895288528718</v>
+        <v>0.1915154640685998</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7218760211229731</v>
+        <v>-0.725458979138063</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.08048127493105443</v>
+        <v>-0.08006078108087272</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.02676402991750034</v>
       </c>
       <c r="E61" t="n">
-        <v>0.03588747801055069</v>
+        <v>0.0336579845757331</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.6943322138879805</v>
+        <v>-0.6977969080077069</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1371311408583119</v>
+        <v>-0.1365763225837666</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.006111848914930092</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.05126279253578955</v>
+        <v>-0.05359740943315255</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7126485171884301</v>
+        <v>-0.7161803735203383</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1687178212570307</v>
+        <v>-0.1684331118793035</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.03935105400870857</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1450986232904007</v>
+        <v>-0.147044867395582</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7466384367447847</v>
+        <v>-0.7498666030737837</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.183937362556663</v>
+        <v>-0.1834862076965722</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.07409117445116326</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.2576814715322795</v>
+        <v>-0.259849642947279</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.7494753101854202</v>
+        <v>-0.7527793990151467</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2172600401354723</v>
+        <v>-0.217055633402745</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1098618384093623</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.410969000500602</v>
+        <v>-0.4128276417203288</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.7300683509610618</v>
+        <v>-0.7338805365264245</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2376729724944668</v>
+        <v>-0.2374203841747396</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1464677211235787</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4341224431262322</v>
+        <v>-0.4365023215144134</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.7608534649578718</v>
+        <v>-0.7645138055217798</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2528078310048263</v>
+        <v>-0.2528136711971899</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1826957915856535</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5214055780488451</v>
+        <v>-0.5234657059051173</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8013011772203155</v>
+        <v>-0.8048184330713145</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2674988348955497</v>
+        <v>-0.2675440963863678</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2159362677756115</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5536478200403819</v>
+        <v>-0.5563211680948358</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.7488679301796022</v>
+        <v>-0.7534568613293283</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3194254452487175</v>
+        <v>-0.3190195518794449</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2456239861863276</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.6343067167745421</v>
+        <v>-0.6365259898727234</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.7950915926896808</v>
+        <v>-0.7994001946059522</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3172207726314454</v>
+        <v>-0.3171565305154454</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2723929926940969</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.7443213404245126</v>
+        <v>-0.7462369235197848</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.7905669036559546</v>
+        <v>-0.7955485877421351</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3575604413351618</v>
+        <v>-0.3572012695047983</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2963551344464537</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.7722856415096868</v>
+        <v>-0.7742844473461409</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9206878495658288</v>
+        <v>-0.924827085903555</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4029109950868769</v>
+        <v>-0.4021167289254226</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3175146251179922</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.8149920481687662</v>
+        <v>-0.8170667765059475</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.9872412216937201</v>
+        <v>-0.9913541771658099</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4201921242908723</v>
+        <v>-0.4195219622171452</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3364910216990721</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8675260385277522</v>
+        <v>-0.8690123674842972</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.02239625962662</v>
+        <v>-1.026316488750709</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4536666468711361</v>
+        <v>-0.4527526567662272</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3542576533751587</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8104089572114039</v>
+        <v>-0.8119566081877672</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.047148454911795</v>
+        <v>-1.051181107738885</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4681036023940413</v>
+        <v>-0.4671998326257688</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.370996456146976</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7951543747575898</v>
+        <v>-0.796382275202044</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.113745628482413</v>
+        <v>-1.117191341976958</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4569196340176806</v>
+        <v>-0.4562465518477717</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3862724732877648</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7121433405489758</v>
+        <v>-0.7128865050272483</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.156954291684765</v>
+        <v>-1.159883148155128</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4593827351470436</v>
+        <v>-0.458800175958771</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3991848741471469</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5598486442824712</v>
+        <v>-0.5613904550664708</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.140448448017042</v>
+        <v>-1.143713115548314</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4406138169384123</v>
+        <v>-0.4398093304403216</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.408189908330982</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.420276807080145</v>
+        <v>-0.4219471020961446</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.165556895036399</v>
+        <v>-1.168424429486944</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4537849107664996</v>
+        <v>-0.4525175890235909</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4116478413172753</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3173799178733545</v>
+        <v>-0.3191407358709903</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.248708093861741</v>
+        <v>-1.251086512201831</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3968065340187877</v>
+        <v>-0.3959407255008788</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4080642741365993</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1283883728899507</v>
+        <v>-0.1298089996824048</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.306391673837362</v>
+        <v>-1.308367118904361</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3746473841430664</v>
+        <v>-0.3735041664878848</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3961872088298375</v>
       </c>
       <c r="E81" t="n">
-        <v>0.03073058815346116</v>
+        <v>0.02893910914591619</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.299984982814454</v>
+        <v>-1.301116520084908</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3239355338015345</v>
+        <v>-0.3235004394704437</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3740338544049108</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2428595152334951</v>
+        <v>0.2408972105993138</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.288541125877912</v>
+        <v>-1.289274070019548</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2878694258599078</v>
+        <v>-0.287434331528817</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3397634466522668</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4251830205857189</v>
+        <v>0.4233199992217194</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.229482180600655</v>
+        <v>-1.2300209383462</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2702554056911853</v>
+        <v>-0.26970058741664</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2923678488477338</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6307329709681182</v>
+        <v>0.6292597824443914</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.151549193652221</v>
+        <v>-1.152337619621312</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2455484718968283</v>
+        <v>-0.2452228811725556</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2322129613911987</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7435100056060879</v>
+        <v>0.7428821849269972</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.062641025204427</v>
+        <v>-1.063882066081699</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2097787537176561</v>
+        <v>-0.2096006278505652</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1613645206222983</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9694772684917545</v>
+        <v>0.9682187070373912</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9975345607346263</v>
+        <v>-0.9986354369951715</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1811267699816638</v>
+        <v>-0.1807296369009366</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.08325947792485587</v>
       </c>
       <c r="E87" t="n">
-        <v>1.112318153369625</v>
+        <v>1.111106313454171</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9423403627540048</v>
+        <v>-0.9433463358886409</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.15112278171349</v>
+        <v>-0.1505139416595811</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.002871744365971069</v>
       </c>
       <c r="E88" t="n">
-        <v>1.21338998246278</v>
+        <v>1.212760701735598</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8881127166095648</v>
+        <v>-0.8887726583466555</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1149325696841361</v>
+        <v>-0.1142083858310454</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.07165298987804491</v>
       </c>
       <c r="E89" t="n">
-        <v>1.335501104545929</v>
+        <v>1.334696618047838</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7932490119989539</v>
+        <v>-0.7928839999762267</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1134258000543183</v>
+        <v>-0.1126913958645912</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1318429800174966</v>
       </c>
       <c r="E90" t="n">
-        <v>1.371117517675556</v>
+        <v>1.370977353058829</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6932035967137081</v>
+        <v>-0.6926969600261628</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07885770145396395</v>
+        <v>-0.07844158774805497</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1707751914369466</v>
       </c>
       <c r="E91" t="n">
-        <v>1.415378875551453</v>
+        <v>1.415479618869726</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5886816739817361</v>
+        <v>-0.5878757274355545</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01648152691416252</v>
+        <v>-0.01647130657752616</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1842310310891705</v>
       </c>
       <c r="E92" t="n">
-        <v>1.438336671732901</v>
+        <v>1.438327911444356</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4618721171420429</v>
+        <v>-0.4607434999677705</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02102811666925221</v>
+        <v>-0.02086751137925226</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.172375835475569</v>
       </c>
       <c r="E93" t="n">
-        <v>1.408937143374364</v>
+        <v>1.409297775252818</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3539161613002537</v>
+        <v>-0.3525787572489814</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.01427247415261766</v>
+        <v>-0.01407536766034499</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1378594477854771</v>
       </c>
       <c r="E94" t="n">
-        <v>1.409658407131273</v>
+        <v>1.409886174633455</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2138887890935641</v>
+        <v>-0.2127616319673825</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.0166450523003443</v>
+        <v>-0.01670345422398065</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.08695242994047479</v>
       </c>
       <c r="E95" t="n">
-        <v>1.33442650915102</v>
+        <v>1.334718518769202</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09760763903741347</v>
+        <v>-0.09628629551514109</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.01895046823588913</v>
+        <v>-0.01889352636034369</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.0282553484697155</v>
       </c>
       <c r="E96" t="n">
-        <v>1.256573824847587</v>
+        <v>1.256897955523768</v>
       </c>
       <c r="F96" t="n">
-        <v>0.02998888372327954</v>
+        <v>0.03078022978855206</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03384441881124877</v>
+        <v>-0.03384149871506695</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.03053065757317534</v>
       </c>
       <c r="E97" t="n">
-        <v>1.173422626022245</v>
+        <v>1.174082567759336</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1315980105138886</v>
+        <v>0.131895860324434</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05224832499715292</v>
+        <v>-0.05227168576660746</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.08504065902207562</v>
       </c>
       <c r="E98" t="n">
-        <v>1.074774476759999</v>
+        <v>1.075632985037453</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1929156501877813</v>
+        <v>0.193000332977054</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.0574139751427879</v>
+        <v>-0.05722562893906068</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1323721184183498</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9374233727039449</v>
+        <v>0.9383329826645811</v>
       </c>
       <c r="F99" t="n">
-        <v>0.19427933510469</v>
+        <v>0.1943450372687809</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05072549483833515</v>
+        <v>-0.05121753104497138</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1761658964740677</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8424005228514251</v>
+        <v>0.8435145395447884</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2113297767103218</v>
+        <v>0.2110684281020491</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.04479915963733674</v>
+        <v>-0.04511306997688211</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2153555975278271</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6885669358971027</v>
+        <v>0.6903423543756477</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1970402860445983</v>
+        <v>0.1971497896514165</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.04891503520560836</v>
+        <v>-0.04896759693688107</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2566641051538807</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6295517920625731</v>
+        <v>0.6312177069342999</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2067233249835048</v>
+        <v>0.2063320320951413</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08100835229187248</v>
+        <v>-0.08110763556205426</v>
       </c>
     </row>
   </sheetData>
